--- a/Backups/econ/2016p&l.xlsx
+++ b/Backups/econ/2016p&l.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\cml_code\backend\Backups\econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663E367-7170-42B6-B8ED-07E5CCACB5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99563BA9-697E-4FFD-8A80-48954FB2D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33465" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{6749DB41-C31D-48E0-BE46-0E607210B342}"/>
+    <workbookView xWindow="2550" yWindow="450" windowWidth="25500" windowHeight="13605" xr2:uid="{6749DB41-C31D-48E0-BE46-0E607210B342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1688,13 +1688,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0253F642-17EC-462C-B8CF-2583ADB5BF16}">
   <dimension ref="A1:S242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="U144" sqref="U144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
